--- a/code/sampling_methods_analysis.xlsx
+++ b/code/sampling_methods_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SS2023\MasterThesis\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446CE554-853E-4A4B-964B-EF65C9CD251A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850EFBC4-ECCF-4092-8767-2BDF1DFFFF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4177,15 +4177,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>892176</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>115887</xdr:rowOff>
+      <xdr:colOff>3387726</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>11112</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4542,8 +4542,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5545,6 +5545,18 @@
       </filters>
     </filterColumn>
   </autoFilter>
+  <conditionalFormatting sqref="G33:G46">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/code/sampling_methods_analysis.xlsx
+++ b/code/sampling_methods_analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SS2023\MasterThesis\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{850EFBC4-ECCF-4092-8767-2BDF1DFFFF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D763AC7F-BEB7-40BB-83C9-BD50340544F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4542,8 +4542,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
